--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.347442</v>
+        <v>0.43316</v>
       </c>
       <c r="H2">
-        <v>1.042326</v>
+        <v>1.29948</v>
       </c>
       <c r="I2">
-        <v>0.1371608633220761</v>
+        <v>0.154553229629434</v>
       </c>
       <c r="J2">
-        <v>0.1371608633220761</v>
+        <v>0.1545532296294341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.01592766666667</v>
+        <v>2.710163333333333</v>
       </c>
       <c r="N2">
-        <v>30.047783</v>
+        <v>8.13049</v>
       </c>
       <c r="O2">
-        <v>0.7836778249236281</v>
+        <v>0.539008183944915</v>
       </c>
       <c r="P2">
-        <v>0.7836778249236281</v>
+        <v>0.5390081839449149</v>
       </c>
       <c r="Q2">
-        <v>3.479953940361999</v>
+        <v>1.173934349466667</v>
       </c>
       <c r="R2">
-        <v>31.31958546325799</v>
+        <v>10.5654091452</v>
       </c>
       <c r="S2">
-        <v>0.1074899270328917</v>
+        <v>0.08330545562538268</v>
       </c>
       <c r="T2">
-        <v>0.1074899270328917</v>
+        <v>0.08330545562538268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.347442</v>
+        <v>0.43316</v>
       </c>
       <c r="H3">
-        <v>1.042326</v>
+        <v>1.29948</v>
       </c>
       <c r="I3">
-        <v>0.1371608633220761</v>
+        <v>0.154553229629434</v>
       </c>
       <c r="J3">
-        <v>0.1371608633220761</v>
+        <v>0.1545532296294341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.855078000000001</v>
       </c>
       <c r="O3">
-        <v>0.1266255472782987</v>
+        <v>0.3218658132155516</v>
       </c>
       <c r="P3">
-        <v>0.1266255472782987</v>
+        <v>0.3218658132155516</v>
       </c>
       <c r="Q3">
-        <v>0.562286003492</v>
+        <v>0.7010085288266668</v>
       </c>
       <c r="R3">
-        <v>5.060574031428</v>
+        <v>6.309076759440001</v>
       </c>
       <c r="S3">
-        <v>0.01736806938332182</v>
+        <v>0.04974540093976767</v>
       </c>
       <c r="T3">
-        <v>0.01736806938332182</v>
+        <v>0.04974540093976768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.347442</v>
+        <v>0.43316</v>
       </c>
       <c r="H4">
-        <v>1.042326</v>
+        <v>1.29948</v>
       </c>
       <c r="I4">
-        <v>0.1371608633220761</v>
+        <v>0.154553229629434</v>
       </c>
       <c r="J4">
-        <v>0.1371608633220761</v>
+        <v>0.1545532296294341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.146383</v>
+        <v>0.6995333333333335</v>
       </c>
       <c r="N4">
-        <v>3.439149</v>
+        <v>2.0986</v>
       </c>
       <c r="O4">
-        <v>0.08969662779807318</v>
+        <v>0.1391260028395335</v>
       </c>
       <c r="P4">
-        <v>0.08969662779807318</v>
+        <v>0.1391260028395335</v>
       </c>
       <c r="Q4">
-        <v>0.3983016022859999</v>
+        <v>0.3030098586666667</v>
       </c>
       <c r="R4">
-        <v>3.584714420574</v>
+        <v>2.727088728</v>
       </c>
       <c r="S4">
-        <v>0.01230286690586265</v>
+        <v>0.02150237306428372</v>
       </c>
       <c r="T4">
-        <v>0.01230286690586265</v>
+        <v>0.02150237306428371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.00883</v>
       </c>
       <c r="I5">
-        <v>0.7907087709177271</v>
+        <v>0.7146582346740482</v>
       </c>
       <c r="J5">
-        <v>0.7907087709177271</v>
+        <v>0.7146582346740483</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.01592766666667</v>
+        <v>2.710163333333333</v>
       </c>
       <c r="N5">
-        <v>30.047783</v>
+        <v>8.13049</v>
       </c>
       <c r="O5">
-        <v>0.7836778249236281</v>
+        <v>0.539008183944915</v>
       </c>
       <c r="P5">
-        <v>0.7836778249236281</v>
+        <v>0.5390081839449149</v>
       </c>
       <c r="Q5">
-        <v>20.06133554709889</v>
+        <v>5.428303580744444</v>
       </c>
       <c r="R5">
-        <v>180.55201992389</v>
+        <v>48.85473222669999</v>
       </c>
       <c r="S5">
-        <v>0.6196609297408397</v>
+        <v>0.3852066372129376</v>
       </c>
       <c r="T5">
-        <v>0.6196609297408397</v>
+        <v>0.3852066372129376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.00883</v>
       </c>
       <c r="I6">
-        <v>0.7907087709177271</v>
+        <v>0.7146582346740482</v>
       </c>
       <c r="J6">
-        <v>0.7907087709177271</v>
+        <v>0.7146582346740483</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.855078000000001</v>
       </c>
       <c r="O6">
-        <v>0.1266255472782987</v>
+        <v>0.3218658132155516</v>
       </c>
       <c r="P6">
-        <v>0.1266255472782987</v>
+        <v>0.3218658132155516</v>
       </c>
       <c r="Q6">
         <v>3.241482037637778</v>
@@ -818,10 +818,10 @@
         <v>29.17333833874</v>
       </c>
       <c r="S6">
-        <v>0.1001239308552081</v>
+        <v>0.230024053874553</v>
       </c>
       <c r="T6">
-        <v>0.1001239308552081</v>
+        <v>0.2300240538745531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.00883</v>
       </c>
       <c r="I7">
-        <v>0.7907087709177271</v>
+        <v>0.7146582346740482</v>
       </c>
       <c r="J7">
-        <v>0.7907087709177271</v>
+        <v>0.7146582346740483</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.146383</v>
+        <v>0.6995333333333335</v>
       </c>
       <c r="N7">
-        <v>3.439149</v>
+        <v>2.0986</v>
       </c>
       <c r="O7">
-        <v>0.08969662779807318</v>
+        <v>0.1391260028395335</v>
       </c>
       <c r="P7">
-        <v>0.08969662779807318</v>
+        <v>0.1391260028395335</v>
       </c>
       <c r="Q7">
-        <v>2.296140187296666</v>
+        <v>1.401125626444444</v>
       </c>
       <c r="R7">
-        <v>20.66526168567</v>
+        <v>12.610130638</v>
       </c>
       <c r="S7">
-        <v>0.07092391032167927</v>
+        <v>0.09942754358655763</v>
       </c>
       <c r="T7">
-        <v>0.07092391032167927</v>
+        <v>0.09942754358655763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1827133333333333</v>
+        <v>0.3665556666666667</v>
       </c>
       <c r="H8">
-        <v>0.54814</v>
+        <v>1.099667</v>
       </c>
       <c r="I8">
-        <v>0.07213036576019673</v>
+        <v>0.1307885356965177</v>
       </c>
       <c r="J8">
-        <v>0.07213036576019673</v>
+        <v>0.1307885356965177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.01592766666667</v>
+        <v>2.710163333333333</v>
       </c>
       <c r="N8">
-        <v>30.047783</v>
+        <v>8.13049</v>
       </c>
       <c r="O8">
-        <v>0.7836778249236281</v>
+        <v>0.539008183944915</v>
       </c>
       <c r="P8">
-        <v>0.7836778249236281</v>
+        <v>0.5390081839449149</v>
       </c>
       <c r="Q8">
-        <v>1.830043530402222</v>
+        <v>0.9934257274255556</v>
       </c>
       <c r="R8">
-        <v>16.47039177362</v>
+        <v>8.940831546829999</v>
       </c>
       <c r="S8">
-        <v>0.05652696814989671</v>
+        <v>0.07049609110659472</v>
       </c>
       <c r="T8">
-        <v>0.05652696814989671</v>
+        <v>0.0704960911065947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1827133333333333</v>
+        <v>0.3665556666666667</v>
       </c>
       <c r="H9">
-        <v>0.54814</v>
+        <v>1.099667</v>
       </c>
       <c r="I9">
-        <v>0.07213036576019673</v>
+        <v>0.1307885356965177</v>
       </c>
       <c r="J9">
-        <v>0.07213036576019673</v>
+        <v>0.1307885356965177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.855078000000001</v>
       </c>
       <c r="O9">
-        <v>0.1266255472782987</v>
+        <v>0.3218658132155516</v>
       </c>
       <c r="P9">
-        <v>0.1266255472782987</v>
+        <v>0.3218658132155516</v>
       </c>
       <c r="Q9">
-        <v>0.2956958283244444</v>
+        <v>0.5932187843362223</v>
       </c>
       <c r="R9">
-        <v>2.66126245492</v>
+        <v>5.338969059026001</v>
       </c>
       <c r="S9">
-        <v>0.009133547039768765</v>
+        <v>0.04209635840123088</v>
       </c>
       <c r="T9">
-        <v>0.009133547039768765</v>
+        <v>0.04209635840123088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1827133333333333</v>
+        <v>0.3665556666666667</v>
       </c>
       <c r="H10">
-        <v>0.54814</v>
+        <v>1.099667</v>
       </c>
       <c r="I10">
-        <v>0.07213036576019673</v>
+        <v>0.1307885356965177</v>
       </c>
       <c r="J10">
-        <v>0.07213036576019673</v>
+        <v>0.1307885356965177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.146383</v>
+        <v>0.6995333333333335</v>
       </c>
       <c r="N10">
-        <v>3.439149</v>
+        <v>2.0986</v>
       </c>
       <c r="O10">
-        <v>0.08969662779807318</v>
+        <v>0.1391260028395335</v>
       </c>
       <c r="P10">
-        <v>0.08969662779807318</v>
+        <v>0.1391260028395335</v>
       </c>
       <c r="Q10">
-        <v>0.2094594592066666</v>
+        <v>0.2564179073555556</v>
       </c>
       <c r="R10">
-        <v>1.88513513286</v>
+        <v>2.3077611662</v>
       </c>
       <c r="S10">
-        <v>0.006469850570531247</v>
+        <v>0.01819608618869216</v>
       </c>
       <c r="T10">
-        <v>0.006469850570531247</v>
+        <v>0.01819608618869215</v>
       </c>
     </row>
   </sheetData>
